--- a/VideoSummaries&Info.xlsx
+++ b/VideoSummaries&Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FC811C-8EBA-4FB9-9D7F-C67CE2D352EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E714263-3391-46FD-8FB8-7544258E9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2670" windowWidth="29040" windowHeight="15720" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
 Overall, the transcript provides insight into a cutting-edge study in the field of neurology and offers thought-provoking discussions on the potential applications and implications of the findings. The research presented in the transcript has the potential to contribute to advancements in neurorehabilitation and our understanding of neuroplasticity, making it a relevant and timely topic in the current scientific landscape. The detailed analysis and thoughtful reflection offered by the participants demonstrate the significance of this study in furthering our knowledge of the human brain and its potential for recovery and adaptation.</t>
   </si>
   <si>
-    <t>Eva</t>
-  </si>
-  <si>
     <t>Master student</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   <si>
     <t>Stephanie Forkel &amp;
 Michel Thiebaut de Schottten</t>
+  </si>
+  <si>
+    <t>Eva Guzmán Chacón</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -870,7 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,9 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1195,7 +1192,7 @@
         <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="165.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1206,13 +1203,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1224,7 +1221,7 @@
         <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,14 +1234,14 @@
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>92</v>
@@ -1253,7 +1250,7 @@
         <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -1273,7 +1270,7 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
         <v>59</v>
@@ -1282,7 +1279,7 @@
         <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="177.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1302,7 +1299,7 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
         <v>59</v>
@@ -1311,7 +1308,7 @@
         <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1331,16 +1328,16 @@
         <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" t="s">
         <v>205</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>206</v>
-      </c>
-      <c r="I6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="221.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1369,7 +1366,7 @@
         <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="180.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1395,7 @@
         <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="189.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,7 +1415,7 @@
         <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -1427,7 +1424,7 @@
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="176.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1437,7 @@
       <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>100</v>
       </c>
       <c r="E10" t="s">
@@ -1456,7 +1453,7 @@
         <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="209.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1485,7 +1482,7 @@
         <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,13 +1493,13 @@
         <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
         <v>106</v>
@@ -1514,7 +1511,7 @@
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="207.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,7 +1531,7 @@
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
         <v>113</v>
@@ -1543,7 +1540,7 @@
         <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -1572,7 +1569,7 @@
         <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1592,7 +1589,7 @@
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
         <v>59</v>
@@ -1601,7 +1598,7 @@
         <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="198" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,7 +1618,7 @@
         <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
         <v>59</v>
@@ -1630,7 +1627,7 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="193.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1650,7 +1647,7 @@
         <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
         <v>110</v>
@@ -1659,7 +1656,7 @@
         <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="192.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,7 +1685,7 @@
         <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,7 +1705,7 @@
         <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>110</v>
@@ -1717,7 +1714,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1746,7 +1743,7 @@
         <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,7 +1763,7 @@
         <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -1775,7 +1772,7 @@
         <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="176.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1804,7 +1801,7 @@
         <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="257.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1824,7 +1821,7 @@
         <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>113</v>
@@ -1833,7 +1830,7 @@
         <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1844,25 +1841,25 @@
         <v>143</v>
       </c>
       <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
         <v>147</v>
       </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" t="s">
-        <v>145</v>
       </c>
       <c r="H24" t="s">
         <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="229.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,13 +1870,13 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s">
         <v>150</v>
       </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
         <v>106</v>
@@ -1891,7 +1888,7 @@
         <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="249.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,10 +1899,10 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
         <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
@@ -1920,7 +1917,7 @@
         <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="278.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1931,13 +1928,13 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
         <v>154</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>155</v>
-      </c>
-      <c r="E27" t="s">
-        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>106</v>
@@ -1949,7 +1946,7 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,13 +1957,13 @@
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
         <v>106</v>
@@ -1978,7 +1975,7 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="243.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1989,13 +1986,13 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>160</v>
-      </c>
-      <c r="E29" t="s">
-        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>105</v>
@@ -2007,7 +2004,7 @@
         <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="245.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2018,16 +2015,16 @@
         <v>76</v>
       </c>
       <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
         <v>162</v>
       </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
         <v>59</v>
@@ -2036,7 +2033,7 @@
         <v>109</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,16 +2044,16 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>165</v>
       </c>
-      <c r="E31" t="s">
-        <v>166</v>
-      </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
         <v>113</v>
@@ -2065,7 +2062,7 @@
         <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="286.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2076,13 +2073,13 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" t="s">
         <v>167</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>169</v>
       </c>
       <c r="F32" t="s">
         <v>106</v>
@@ -2094,7 +2091,7 @@
         <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="292.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2105,13 +2102,13 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
         <v>170</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>171</v>
-      </c>
-      <c r="E33" t="s">
-        <v>172</v>
       </c>
       <c r="F33" t="s">
         <v>106</v>
@@ -2123,7 +2120,7 @@
         <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,13 +2131,13 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
         <v>173</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>174</v>
-      </c>
-      <c r="E34" t="s">
-        <v>175</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -2152,7 +2149,7 @@
         <v>109</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
@@ -2160,19 +2157,19 @@
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
         <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
@@ -2181,7 +2178,7 @@
         <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="249.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,16 +2189,16 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>179</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>181</v>
       </c>
       <c r="G36" t="s">
         <v>59</v>
@@ -2210,7 +2207,7 @@
         <v>108</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
